--- a/pred_ohlcv/54_21/2019-10-26 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BCD ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>8752.442575719999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>177264.7320565</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>176751.40068508</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>182278.15760985</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>167336.29240985</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>160150.39733843</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>161303.05663843</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>175969.58873843</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>160603.45603843</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>164101.20673843</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>164101.20673843</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>165829.17959042</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>157432.02819042</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>157432.02819042</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>142177.38239042</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>148432.99599042</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>148904.10119042</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>148904.10119042</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>148904.10119042</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>90613.40213191998</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>89357.82393191998</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>99144.79488637998</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>104575.54118638</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>79366.31818637998</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BCD ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>8752.442575719999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9109.442575719999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>9107.442575719999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>8107.442575719999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>8107.442575719999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>8107.442575719999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>8264.654675719999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-19376.40212428</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>177264.7320565</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>176751.40068508</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>182278.15760985</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>167336.29240985</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>160150.39733843</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>161303.05663843</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>175969.58873843</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>160603.45603843</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>164101.20673843</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>164101.20673843</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>165829.17959042</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>165829.17959042</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>157432.02819042</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>157432.02819042</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>157432.02819042</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>142177.38239042</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>148432.99599042</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>148904.10119042</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>148904.10119042</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>148904.10119042</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>90613.40213191998</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>89357.82393191998</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>99144.79488637998</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>104246.40648638</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
